--- a/st2_Rozhin_telecom1_DataDictionary.xlsx
+++ b/st2_Rozhin_telecom1_DataDictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>KEY</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>номер лицевого счёта абонента</t>
+  </si>
+  <si>
+    <t>IdentificationData</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Passworld</t>
   </si>
 </sst>
 </file>
@@ -284,9 +296,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,6 +303,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E50"/>
+  <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,28 +652,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -756,28 +768,28 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -811,28 +823,28 @@
     </row>
     <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -928,28 +940,28 @@
       <c r="E24" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1049,28 +1061,28 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1133,28 +1145,28 @@
       <c r="E41" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1232,8 +1244,72 @@
         <v>53</v>
       </c>
     </row>
+    <row r="52" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
